--- a/EDA_Entrega/data/correlation_weight.xlsx
+++ b/EDA_Entrega/data/correlation_weight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -472,12 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01743347670964502</v>
+        <v>0.01743347670963923</v>
       </c>
       <c r="D2" t="n">
+        <v>5.47007499182961e-08</v>
+      </c>
+      <c r="E2" t="n">
         <v>45604.40821533837</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>346177372.1748108</v>
       </c>
     </row>
@@ -493,12 +501,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01743347358081665</v>
+        <v>0.01743347358081023</v>
       </c>
       <c r="D3" t="n">
+        <v>5.470104923623275e-08</v>
+      </c>
+      <c r="E3" t="n">
         <v>45.60440037998817</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>346177.3571652936</v>
       </c>
     </row>
@@ -514,12 +525,15 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.07018952890628954</v>
+        <v>-0.07018952890627816</v>
       </c>
       <c r="D4" t="n">
+        <v>2.14821876789793e-106</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.006850429406198445</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>67.29655536467129</v>
       </c>
     </row>
@@ -535,12 +549,15 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.001045053931389733</v>
+        <v>0.001045053931389322</v>
       </c>
       <c r="D5" t="n">
+        <v>0.7623642681817312</v>
+      </c>
+      <c r="E5" t="n">
         <v>5.733544390447619e-07</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05294101307056286</v>
       </c>
     </row>
@@ -556,12 +573,15 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.008895852236687096</v>
+        <v>-0.008895852236690014</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01004617061764071</v>
+      </c>
+      <c r="E6" t="n">
         <v>-1.270063845881756e-05</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.2128846194168956</v>
       </c>
     </row>
@@ -577,12 +597,15 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.04015978219546117</v>
+        <v>-0.04015978219545506</v>
       </c>
       <c r="D7" t="n">
+        <v>5.220274378226847e-32</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.0001171927770097173</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.975934342919478</v>
       </c>
     </row>
@@ -598,12 +621,15 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.008385555283170743</v>
+        <v>0.008385555283169012</v>
       </c>
       <c r="D8" t="n">
+        <v>0.01401179727651668</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.002274578856038712</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>80.76993061724252</v>
       </c>
     </row>
@@ -619,12 +645,15 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01423184850409407</v>
+        <v>0.01423184850409615</v>
       </c>
       <c r="D9" t="n">
+        <v>3.10586437021295e-05</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.001826009175733155</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>21.25142014764435</v>
       </c>
     </row>
@@ -640,12 +669,15 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.009713484086315094</v>
+        <v>0.009713484086315435</v>
       </c>
       <c r="D10" t="n">
+        <v>0.004941099143524874</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.0002090002680997887</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>2.024043039468797</v>
       </c>
     </row>
@@ -661,12 +693,15 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0009483569902255266</v>
+        <v>0.0009483569902258293</v>
       </c>
       <c r="D11" t="n">
+        <v>0.7837577949776843</v>
+      </c>
+      <c r="E11" t="n">
         <v>1.875320953587205e-06</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.5624821362181041</v>
       </c>
     </row>
@@ -682,12 +717,15 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04329945167003974</v>
+        <v>0.0432994516700398</v>
       </c>
       <c r="D12" t="n">
+        <v>4.851954771069798e-36</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.0005864397893772041</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>3.816240173718593</v>
       </c>
     </row>
@@ -703,12 +741,15 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.009631792313360855</v>
+        <v>-0.009631792313358433</v>
       </c>
       <c r="D13" t="n">
+        <v>0.004950605493929017</v>
+      </c>
+      <c r="E13" t="n">
         <v>-0.001240895837450859</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>23.31060835037404</v>
       </c>
     </row>
@@ -724,12 +765,15 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.00104487290800378</v>
+        <v>-0.001044872908003309</v>
       </c>
       <c r="D14" t="n">
+        <v>0.7624041922705891</v>
+      </c>
+      <c r="E14" t="n">
         <v>-6.055525684113037e-06</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.8741552004587418</v>
       </c>
     </row>
@@ -745,12 +789,15 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.03437667869538835</v>
+        <v>-0.03437667869537473</v>
       </c>
       <c r="D15" t="n">
+        <v>7.805842837462417e-24</v>
+      </c>
+      <c r="E15" t="n">
         <v>-8.335629327537947e-05</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.4825863320537089</v>
       </c>
     </row>
@@ -766,12 +813,15 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.001698047755588855</v>
+        <v>-0.001698047755587135</v>
       </c>
       <c r="D16" t="n">
+        <v>0.6186990746863107</v>
+      </c>
+      <c r="E16" t="n">
         <v>-0.0001048619688001173</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>17.33967382151696</v>
       </c>
     </row>
@@ -787,12 +837,15 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.008092056873226301</v>
+        <v>-0.008092056873223886</v>
       </c>
       <c r="D17" t="n">
+        <v>0.01776767160807682</v>
+      </c>
+      <c r="E17" t="n">
         <v>-2.846921873452836e-05</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>9.306334114688081</v>
       </c>
     </row>
@@ -808,12 +861,15 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.008802346044096474</v>
+        <v>-0.008802346044099013</v>
       </c>
       <c r="D18" t="n">
+        <v>0.009887311079650313</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.00327475990098478</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>189.2946605676667</v>
       </c>
     </row>
@@ -829,12 +885,15 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.0346385639857931</v>
+        <v>-0.034638563985792</v>
       </c>
       <c r="D19" t="n">
+        <v>3.132465060977936e-24</v>
+      </c>
+      <c r="E19" t="n">
         <v>-0.0009641654567296319</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>101.0345287097812</v>
       </c>
     </row>
@@ -850,12 +909,15 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.003088922571707271</v>
+        <v>-0.003088922571707308</v>
       </c>
       <c r="D20" t="n">
+        <v>0.3654117358910839</v>
+      </c>
+      <c r="E20" t="n">
         <v>-0.01070412808306939</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>328.0592834959351</v>
       </c>
     </row>
@@ -871,12 +933,15 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0001439066139515347</v>
+        <v>0.0001439066139534266</v>
       </c>
       <c r="D21" t="n">
+        <v>0.9663794939459759</v>
+      </c>
+      <c r="E21" t="n">
         <v>3.34338116257021e-06</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>23.99093946258288</v>
       </c>
     </row>
@@ -892,12 +957,15 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.008376763481286969</v>
+        <v>0.008376763481285823</v>
       </c>
       <c r="D22" t="n">
+        <v>0.01405603636151457</v>
+      </c>
+      <c r="E22" t="n">
         <v>4.496490513999199e-05</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.943310308220675</v>
       </c>
     </row>
@@ -913,12 +981,15 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01524456641845505</v>
+        <v>0.01524456641845386</v>
       </c>
       <c r="D23" t="n">
+        <v>7.918608039776909e-06</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.001378100016177987</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>4.29885820001233</v>
       </c>
     </row>
@@ -934,12 +1005,15 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.004895500922692405</v>
+        <v>0.004895500922696874</v>
       </c>
       <c r="D24" t="n">
+        <v>0.1513263416417854</v>
+      </c>
+      <c r="E24" t="n">
         <v>2.391158294164631e-05</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.12650206306798</v>
       </c>
     </row>
@@ -955,12 +1029,15 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.000887924990285709</v>
+        <v>-0.0008879249902846256</v>
       </c>
       <c r="D25" t="n">
+        <v>0.794893681297459</v>
+      </c>
+      <c r="E25" t="n">
         <v>-1.849858239392446e-05</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>2.61501647038756</v>
       </c>
     </row>
@@ -976,12 +1053,15 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.02436544040164677</v>
+        <v>-0.0243654404016491</v>
       </c>
       <c r="D26" t="n">
+        <v>1.768042296621389e-12</v>
+      </c>
+      <c r="E26" t="n">
         <v>-0.0004659579890895319</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>3.204880941227485</v>
       </c>
     </row>
@@ -997,12 +1077,15 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.001505034827854355</v>
+        <v>0.00150503482785479</v>
       </c>
       <c r="D27" t="n">
+        <v>0.6593972313211929</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.002471465605599943</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>152.0990405208781</v>
       </c>
     </row>
@@ -1018,12 +1101,15 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.03233248709644848</v>
+        <v>0.03233248709644277</v>
       </c>
       <c r="D28" t="n">
+        <v>2.90809054056753e-21</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.01285513259714883</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>108.2721558724136</v>
       </c>
     </row>
@@ -1039,12 +1125,15 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007331904313967842</v>
+        <v>0.007331904313967941</v>
       </c>
       <c r="D29" t="n">
+        <v>0.0335309439103811</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.0002811246717378223</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>41.73563970284656</v>
       </c>
     </row>
@@ -1060,12 +1149,15 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.07270608037876757</v>
+        <v>-0.07270608037876052</v>
       </c>
       <c r="D30" t="n">
+        <v>5.01282419907821e-101</v>
+      </c>
+      <c r="E30" t="n">
         <v>-0.01362332112485977</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>59.3036551320681</v>
       </c>
     </row>
@@ -1081,12 +1173,15 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.003317752683914599</v>
+        <v>-0.003317752683914758</v>
       </c>
       <c r="D31" t="n">
+        <v>0.3360097110607079</v>
+      </c>
+      <c r="E31" t="n">
         <v>-4.438592761793269e-05</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>13.69258288442079</v>
       </c>
     </row>
@@ -1102,12 +1197,15 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.002278899147344454</v>
+        <v>-0.00227889914734436</v>
       </c>
       <c r="D32" t="n">
+        <v>0.5048240866226761</v>
+      </c>
+      <c r="E32" t="n">
         <v>-9.007532917983136e-06</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>4.186661850624837</v>
       </c>
     </row>
@@ -1123,12 +1221,15 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.00790515797247745</v>
+        <v>0.007905157972477077</v>
       </c>
       <c r="D33" t="n">
+        <v>0.02217600808054706</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.002629214153478236</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>101.9065104128035</v>
       </c>
     </row>
@@ -1144,12 +1245,15 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.005475436678661179</v>
+        <v>0.005475436678661296</v>
       </c>
       <c r="D34" t="n">
+        <v>0.1130949247512114</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.000456707406761944</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>30.30822550850707</v>
       </c>
     </row>
@@ -1165,12 +1269,15 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01678159127890132</v>
+        <v>-0.01678159127890025</v>
       </c>
       <c r="D35" t="n">
+        <v>1.18588010757369e-06</v>
+      </c>
+      <c r="E35" t="n">
         <v>-0.0003325900870726834</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>30.49322056163911</v>
       </c>
     </row>
@@ -1186,12 +1293,15 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.02530412058374555</v>
+        <v>-0.02530412058374201</v>
       </c>
       <c r="D36" t="n">
+        <v>2.717774092008137e-13</v>
+      </c>
+      <c r="E36" t="n">
         <v>-0.0002824465365925162</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>32.83142868978442</v>
       </c>
     </row>
@@ -1207,12 +1317,15 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.003291769991215829</v>
+        <v>-0.003291769991219455</v>
       </c>
       <c r="D37" t="n">
+        <v>0.339954366677262</v>
+      </c>
+      <c r="E37" t="n">
         <v>-0.0001957629414810427</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>92.97445920819378</v>
       </c>
     </row>
@@ -1228,12 +1341,15 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.03852016461401234</v>
+        <v>-0.03852016461400948</v>
       </c>
       <c r="D38" t="n">
+        <v>7.105713617060515e-29</v>
+      </c>
+      <c r="E38" t="n">
         <v>-0.0008289780706389674</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>8.541005318094186</v>
       </c>
     </row>
@@ -1249,12 +1365,15 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0106469173080436</v>
+        <v>0.01064691730804226</v>
       </c>
       <c r="D39" t="n">
+        <v>0.002132718138784903</v>
+      </c>
+      <c r="E39" t="n">
         <v>9.689277719290398e-05</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>11.22310171479656</v>
       </c>
     </row>
@@ -1270,12 +1389,15 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.03098862544814246</v>
+        <v>-0.03098862544814336</v>
       </c>
       <c r="D40" t="n">
+        <v>1.038549230070195e-19</v>
+      </c>
+      <c r="E40" t="n">
         <v>-0.0007845990520444527</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>139.6315909650442</v>
       </c>
     </row>
@@ -1291,12 +1413,15 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.009424165701082496</v>
+        <v>0.009424165701082499</v>
       </c>
       <c r="D41" t="n">
+        <v>0.006393963268882847</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.0008388981872446357</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>57.0790787099594</v>
       </c>
     </row>
@@ -1312,12 +1437,15 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.01550332042409073</v>
+        <v>-0.01550332042409429</v>
       </c>
       <c r="D42" t="n">
+        <v>7.241898153583499e-06</v>
+      </c>
+      <c r="E42" t="n">
         <v>-0.241966107101485</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>355.8664930921818</v>
       </c>
     </row>
@@ -1333,12 +1461,15 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.02551592110498542</v>
+        <v>0.02551592110498888</v>
       </c>
       <c r="D43" t="n">
+        <v>1.831978112273952e-13</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.0005482123085340516</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>13.82498301201315</v>
       </c>
     </row>
@@ -1354,12 +1485,15 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.04455276095547504</v>
+        <v>0.04455276095547503</v>
       </c>
       <c r="D44" t="n">
+        <v>3.464811648687931e-38</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.02653590010952312</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>225.9265373791217</v>
       </c>
     </row>
@@ -1375,12 +1509,15 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.008854163484503887</v>
+        <v>0.008854163484504992</v>
       </c>
       <c r="D45" t="n">
+        <v>0.01025639656526241</v>
+      </c>
+      <c r="E45" t="n">
         <v>4.074637997713344e-05</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>4.507834650205181</v>
       </c>
     </row>
@@ -1396,12 +1533,15 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.02488966774442715</v>
+        <v>0.02488966774442298</v>
       </c>
       <c r="D46" t="n">
+        <v>5.321526003635769e-13</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.0003213856955151261</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>13.90645151304211</v>
       </c>
     </row>
@@ -1417,12 +1557,15 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.06291801699476995</v>
+        <v>0.06291801699477341</v>
       </c>
       <c r="D47" t="n">
+        <v>4.529036442565213e-76</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.05723254404949974</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>140.9240417911548</v>
       </c>
     </row>
@@ -1438,12 +1581,15 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01359577835196105</v>
+        <v>0.01359577835196287</v>
       </c>
       <c r="D48" t="n">
+        <v>6.745709478127512e-05</v>
+      </c>
+      <c r="E48" t="n">
         <v>5.507206884788505e-05</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>6.882504167190651</v>
       </c>
     </row>
@@ -1459,12 +1605,15 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.02994038949697536</v>
+        <v>0.02994038949697453</v>
       </c>
       <c r="D49" t="n">
+        <v>4.476677518379438e-18</v>
+      </c>
+      <c r="E49" t="n">
         <v>0.0008086624633751863</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>6.65487802909253</v>
       </c>
     </row>
@@ -1480,12 +1629,15 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.03030147408959291</v>
+        <v>0.0303014740895922</v>
       </c>
       <c r="D50" t="n">
+        <v>9.229687189722637e-19</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.001704103052523845</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>1.637374174260671</v>
       </c>
     </row>
@@ -1501,12 +1653,15 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.03668977885098276</v>
+        <v>-0.03668977885098724</v>
       </c>
       <c r="D51" t="n">
+        <v>9.159668069374266e-27</v>
+      </c>
+      <c r="E51" t="n">
         <v>-0.004392241798023112</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>31.07506024740054</v>
       </c>
     </row>
@@ -1522,12 +1677,15 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01808132700038298</v>
+        <v>0.01808132700038256</v>
       </c>
       <c r="D52" t="n">
+        <v>1.20959192819908e-07</v>
+      </c>
+      <c r="E52" t="n">
         <v>2.361423370396398</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>48063.99716370835</v>
       </c>
     </row>
@@ -1543,12 +1701,15 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.004762803397191228</v>
+        <v>0.004762803397191336</v>
       </c>
       <c r="D53" t="n">
+        <v>0.1633321040097645</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.0003770175993653118</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>4.009859927788062</v>
       </c>
     </row>
@@ -1564,12 +1725,15 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.04230877641925818</v>
+        <v>0.04230877641925888</v>
       </c>
       <c r="D54" t="n">
+        <v>3.028220462820294e-35</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.1842408132575537</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>561.7547261876666</v>
       </c>
     </row>
@@ -1585,12 +1749,15 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.006167505067079804</v>
+        <v>-0.006167505067080003</v>
       </c>
       <c r="D55" t="n">
+        <v>0.07106223700483297</v>
+      </c>
+      <c r="E55" t="n">
         <v>-0.003008867393510845</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>7.955787891220954</v>
       </c>
     </row>
@@ -1606,12 +1773,15 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01971475821679299</v>
+        <v>0.01971475821679371</v>
       </c>
       <c r="D56" t="n">
+        <v>7.901850800694141e-09</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.3224667614952902</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>1759.933756391665</v>
       </c>
     </row>
@@ -1627,12 +1797,15 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.02132585524853116</v>
+        <v>-0.02132585524852757</v>
       </c>
       <c r="D57" t="n">
+        <v>4.322295293617188e-10</v>
+      </c>
+      <c r="E57" t="n">
         <v>-0.007535206655851593</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>105.8443019970718</v>
       </c>
     </row>
@@ -1648,12 +1821,15 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.03381453437838644</v>
+        <v>-0.03381453437838873</v>
       </c>
       <c r="D58" t="n">
+        <v>2.899673151556184e-17</v>
+      </c>
+      <c r="E58" t="n">
         <v>-0.0001554875718340692</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>0.9664349683427838</v>
       </c>
     </row>
@@ -1669,12 +1845,15 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.01510086986352655</v>
+        <v>-0.01510086986352942</v>
       </c>
       <c r="D59" t="n">
+        <v>0.0001065670042989892</v>
+      </c>
+      <c r="E59" t="n">
         <v>-0.0007174089097057239</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>13.19373561098983</v>
       </c>
     </row>
@@ -1690,12 +1869,15 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.01728928978196281</v>
+        <v>-0.01728928978196146</v>
       </c>
       <c r="D60" t="n">
+        <v>3.670021224537805e-06</v>
+      </c>
+      <c r="E60" t="n">
         <v>-1.541389766815615</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>36920.22651455443</v>
       </c>
     </row>
@@ -1711,12 +1893,15 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>-0.02130779472395401</v>
+        <v>-0.02130779472395192</v>
       </c>
       <c r="D61" t="n">
+        <v>1.160502798711351e-08</v>
+      </c>
+      <c r="E61" t="n">
         <v>-0.0121728493481472</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>225.0918624738157</v>
       </c>
     </row>
@@ -1732,12 +1917,15 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.02134554508114412</v>
+        <v>0.02134554508114282</v>
       </c>
       <c r="D62" t="n">
+        <v>2.051091094320767e-09</v>
+      </c>
+      <c r="E62" t="n">
         <v>1.02208084322648e-05</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>0.0482764300234992</v>
       </c>
     </row>
@@ -1753,12 +1941,15 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.01063408473624973</v>
+        <v>0.01063408473625032</v>
       </c>
       <c r="D63" t="n">
+        <v>0.002833183635881639</v>
+      </c>
+      <c r="E63" t="n">
         <v>3.138660207033472e-06</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>0.03566133762803864</v>
       </c>
     </row>
@@ -1774,12 +1965,15 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.00519910225823937</v>
+        <v>-0.005199102258239557</v>
       </c>
       <c r="D64" t="n">
+        <v>0.1444275883810935</v>
+      </c>
+      <c r="E64" t="n">
         <v>-1.112973474110242e-06</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>0.007205418834386221</v>
       </c>
     </row>
@@ -1795,12 +1989,15 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.02981295504546218</v>
+        <v>0.02981295504546099</v>
       </c>
       <c r="D65" t="n">
+        <v>5.654453873159064e-17</v>
+      </c>
+      <c r="E65" t="n">
         <v>4.797149322897962e-05</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.2187182114850064</v>
       </c>
     </row>
@@ -1816,12 +2013,15 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-0.005107529941734557</v>
+        <v>-0.005107529941733707</v>
       </c>
       <c r="D66" t="n">
+        <v>0.1516105216060728</v>
+      </c>
+      <c r="E66" t="n">
         <v>-1.129448364621243e-07</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>0.001686418315472381</v>
       </c>
     </row>
@@ -1837,12 +2037,15 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.03265410062484306</v>
+        <v>0.03265410062483881</v>
       </c>
       <c r="D67" t="n">
+        <v>4.749676736976426e-20</v>
+      </c>
+      <c r="E67" t="n">
         <v>5.055097903590254e-05</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>0.2053991595709575</v>
       </c>
     </row>
@@ -1858,12 +2061,15 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-0.00863259476590938</v>
+        <v>-0.008632594765910143</v>
       </c>
       <c r="D68" t="n">
+        <v>0.01536105803761935</v>
+      </c>
+      <c r="E68" t="n">
         <v>-1.20328851734315e-05</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>0.1950992034224765</v>
       </c>
     </row>
@@ -1879,12 +2085,15 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.009138881683800849</v>
+        <v>-0.009138881683802082</v>
       </c>
       <c r="D69" t="n">
+        <v>0.01029787122555528</v>
+      </c>
+      <c r="E69" t="n">
         <v>-1.208105289264674e-05</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>0.1850712733561077</v>
       </c>
     </row>
@@ -1900,12 +2109,15 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.008684275277304343</v>
+        <v>-0.00868427527730539</v>
       </c>
       <c r="D70" t="n">
+        <v>0.01476748495314932</v>
+      </c>
+      <c r="E70" t="n">
         <v>-1.211579076087664e-06</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>0.007770543662126655</v>
       </c>
     </row>
@@ -1921,12 +2133,15 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.04727018157055884</v>
+        <v>-0.04727018157055334</v>
       </c>
       <c r="D71" t="n">
+        <v>4.045936864317777e-41</v>
+      </c>
+      <c r="E71" t="n">
         <v>-5.56092620457936e-05</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>0.7229101383220825</v>
       </c>
     </row>
@@ -1942,12 +2157,15 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.03500455551780077</v>
+        <v>-0.03500455551779826</v>
       </c>
       <c r="D72" t="n">
+        <v>2.718546886708631e-23</v>
+      </c>
+      <c r="E72" t="n">
         <v>-3.02102720022281e-05</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>0.1632390943187881</v>
       </c>
     </row>
@@ -1963,12 +2181,15 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.007753439703702402</v>
+        <v>-0.007753439703702143</v>
       </c>
       <c r="D73" t="n">
+        <v>0.02768534312803379</v>
+      </c>
+      <c r="E73" t="n">
         <v>-1.056890402130564e-06</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>0.008816952566933864</v>
       </c>
     </row>
@@ -1984,12 +2205,15 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.02367008135910048</v>
+        <v>0.02367008135909963</v>
       </c>
       <c r="D74" t="n">
+        <v>1.788182274373762e-11</v>
+      </c>
+      <c r="E74" t="n">
         <v>1.558774981381654e-05</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>0.9308602305513053</v>
       </c>
     </row>
@@ -2005,12 +2229,15 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.004570432741372555</v>
+        <v>0.004570432741370341</v>
       </c>
       <c r="D75" t="n">
+        <v>0.194340701859422</v>
+      </c>
+      <c r="E75" t="n">
         <v>3.474336753297715e-06</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>0.9525391726512179</v>
       </c>
     </row>
@@ -2026,12 +2253,15 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.002433954741507628</v>
+        <v>0.002433954741507129</v>
       </c>
       <c r="D76" t="n">
+        <v>0.4894673106449955</v>
+      </c>
+      <c r="E76" t="n">
         <v>9.347945679160983e-07</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>0.03812437650002323</v>
       </c>
     </row>
@@ -2047,12 +2277,15 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-0.002523766548606195</v>
+        <v>-0.002523766548605809</v>
       </c>
       <c r="D77" t="n">
+        <v>0.475198451124363</v>
+      </c>
+      <c r="E77" t="n">
         <v>-4.67301620339914e-05</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>0.187191144849816</v>
       </c>
     </row>
@@ -2068,12 +2301,15 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.02358115901834413</v>
+        <v>0.02358115901834521</v>
       </c>
       <c r="D78" t="n">
+        <v>2.002355196038348e-09</v>
+      </c>
+      <c r="E78" t="n">
         <v>6.20925282282012e-06</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>0.02669053359554596</v>
       </c>
     </row>
@@ -2089,12 +2325,15 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.07732901295409721</v>
+        <v>0.07732901295409006</v>
       </c>
       <c r="D79" t="n">
+        <v>5.276493398789687e-106</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.0001419214057601458</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>0.3265546336702183</v>
       </c>
     </row>
@@ -2110,12 +2349,15 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.0002707272604950888</v>
+        <v>-0.0002707272604954047</v>
       </c>
       <c r="D80" t="n">
+        <v>0.9389445896331994</v>
+      </c>
+      <c r="E80" t="n">
         <v>-6.324919531284741e-07</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>0.3550234225795187</v>
       </c>
     </row>
@@ -2131,12 +2373,15 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-0.01069846441791623</v>
+        <v>-0.01069846441791519</v>
       </c>
       <c r="D81" t="n">
+        <v>0.002519837930805026</v>
+      </c>
+      <c r="E81" t="n">
         <v>-6.841649429836327e-06</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>0.03694154185781457</v>
       </c>
     </row>
@@ -2152,12 +2397,15 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.03595198477871289</v>
+        <v>0.03595198477870803</v>
       </c>
       <c r="D82" t="n">
+        <v>2.560630343477654e-24</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.000155528425024247</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>0.9438008051960677</v>
       </c>
     </row>
@@ -2173,12 +2421,15 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.004390027673290365</v>
+        <v>-0.004390027673290687</v>
       </c>
       <c r="D83" t="n">
+        <v>0.2147382831235622</v>
+      </c>
+      <c r="E83" t="n">
         <v>-4.217853944995231e-06</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>0.01937135862083523</v>
       </c>
     </row>
@@ -2194,12 +2445,15 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-0.003894430417007645</v>
+        <v>-0.003894430417007607</v>
       </c>
       <c r="D84" t="n">
+        <v>0.271078536887537</v>
+      </c>
+      <c r="E84" t="n">
         <v>-6.816319734353933e-05</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>0.05088090733694562</v>
       </c>
     </row>
@@ -2215,12 +2469,15 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.01510963254537993</v>
+        <v>0.01510963254538054</v>
       </c>
       <c r="D85" t="n">
+        <v>1.982294563838016e-05</v>
+      </c>
+      <c r="E85" t="n">
         <v>9.339081101168563e-06</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>0.07038141573433657</v>
       </c>
     </row>
@@ -2236,12 +2493,15 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>-0.01106333213570661</v>
+        <v>-0.01106333213570544</v>
       </c>
       <c r="D86" t="n">
+        <v>0.001784203335497084</v>
+      </c>
+      <c r="E86" t="n">
         <v>-3.149624186830562e-05</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>0.441325800468642</v>
       </c>
     </row>
@@ -2257,12 +2517,15 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.02305229670988845</v>
+        <v>0.02305229670988416</v>
       </c>
       <c r="D87" t="n">
+        <v>6.890705372719258e-11</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.0001328132859702518</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>1.403921521956236</v>
       </c>
     </row>
@@ -2278,12 +2541,15 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.03228139909977849</v>
+        <v>0.03228139909978154</v>
       </c>
       <c r="D88" t="n">
+        <v>7.160339013751934e-20</v>
+      </c>
+      <c r="E88" t="n">
         <v>3.278623185055567e-05</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>0.09025106856402136</v>
       </c>
     </row>
@@ -2299,12 +2565,15 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.02599317695245134</v>
+        <v>0.02599317695245215</v>
       </c>
       <c r="D89" t="n">
+        <v>1.017585616393832e-13</v>
+      </c>
+      <c r="E89" t="n">
         <v>1.241205807573517e-05</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>0.06779348741195335</v>
       </c>
     </row>
@@ -2320,12 +2589,15 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>-0.02260457384328057</v>
+        <v>-0.022604573843281</v>
       </c>
       <c r="D90" t="n">
+        <v>9.891569761796509e-11</v>
+      </c>
+      <c r="E90" t="n">
         <v>-2.422277372197457e-05</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>0.2514684950114892</v>
       </c>
     </row>
@@ -2341,12 +2613,15 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.03307483548017318</v>
+        <v>0.03307483548017495</v>
       </c>
       <c r="D91" t="n">
+        <v>2.9025416137617e-21</v>
+      </c>
+      <c r="E91" t="n">
         <v>4.110702761136369e-05</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>0.6734330474498795</v>
       </c>
     </row>
@@ -2362,12 +2637,15 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>-0.01194659197394121</v>
+        <v>-0.01194659197394326</v>
       </c>
       <c r="D92" t="n">
+        <v>0.0006299945212710219</v>
+      </c>
+      <c r="E92" t="n">
         <v>-1.443504714452713e-05</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>0.7046262350435405</v>
       </c>
     </row>
@@ -2383,12 +2661,15 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.01980960391301437</v>
+        <v>0.0198096039130121</v>
       </c>
       <c r="D93" t="n">
+        <v>1.494101140519208e-08</v>
+      </c>
+      <c r="E93" t="n">
         <v>3.052868351698181e-05</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>0.6461285195332913</v>
       </c>
     </row>
@@ -2404,12 +2685,15 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.02091922163107058</v>
+        <v>0.02091922163106973</v>
       </c>
       <c r="D94" t="n">
+        <v>4.254736079364022e-09</v>
+      </c>
+      <c r="E94" t="n">
         <v>4.933505631234135e-06</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>0.03390733926159163</v>
       </c>
     </row>
@@ -2425,12 +2709,15 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.03408548904092825</v>
+        <v>-0.03408548904092897</v>
       </c>
       <c r="D95" t="n">
+        <v>1.041459765067308e-21</v>
+      </c>
+      <c r="E95" t="n">
         <v>-6.571108504136235e-06</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>0.03014760856715282</v>
       </c>
     </row>
@@ -2446,12 +2733,15 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.01410738194584156</v>
+        <v>0.01410738194584153</v>
       </c>
       <c r="D96" t="n">
+        <v>7.463063440418841e-05</v>
+      </c>
+      <c r="E96" t="n">
         <v>7.640798753926978e-07</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>0.007537761548320121</v>
       </c>
     </row>
@@ -2467,12 +2757,15 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.00732474621472412</v>
+        <v>0.007324746214726325</v>
       </c>
       <c r="D97" t="n">
+        <v>0.09099445595114171</v>
+      </c>
+      <c r="E97" t="n">
         <v>6.461326187291031e-05</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>5.964762355047239</v>
       </c>
     </row>
@@ -2488,12 +2781,15 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.04503610785634297</v>
+        <v>-0.04503610785634806</v>
       </c>
       <c r="D98" t="n">
+        <v>8.763613303474372e-27</v>
+      </c>
+      <c r="E98" t="n">
         <v>-0.006788104007549889</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>55.44318406160568</v>
       </c>
     </row>
@@ -2509,12 +2805,15 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-0.03852018293664636</v>
+        <v>-0.03852018293664629</v>
       </c>
       <c r="D99" t="n">
+        <v>2.255023915966181e-20</v>
+      </c>
+      <c r="E99" t="n">
         <v>-0.01337044401712723</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>192.6224427655892</v>
       </c>
     </row>
@@ -2530,12 +2829,15 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.04061644720544348</v>
+        <v>0.04061644720544159</v>
       </c>
       <c r="D100" t="n">
+        <v>1.131750335096853e-22</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.001424520129581182</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>3.139685329364051</v>
       </c>
     </row>
@@ -2551,12 +2853,15 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.0180701869649989</v>
+        <v>0.01807018696499718</v>
       </c>
       <c r="D101" t="n">
+        <v>1.321879674550325e-05</v>
+      </c>
+      <c r="E101" t="n">
         <v>7.977099994199122e-05</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>1.077178897494891</v>
       </c>
     </row>
